--- a/Matrices/Matrices Grupo Mineria_tp.xlsx
+++ b/Matrices/Matrices Grupo Mineria_tp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/085a382fef085c08/Documentos/tp_RealizarMatriz-OD/Trabajo_Practico_M_O_D/Matrices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/085a382fef085c08/Documentos/tp_RealizarMatriz-OD/Matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{B75C88F1-578F-4984-9720-E838DA1FB3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D1E40EA-9905-49EF-A463-EDC2E37DE8B9}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{B75C88F1-578F-4984-9720-E838DA1FB3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC19E0A-854C-4511-9921-C5B21B8B28EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{345D1872-301E-49D5-B83C-2B1CF85F42C4}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
